--- a/csv/FilRouge.xlsx
+++ b/csv/FilRouge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\loren\Documents\workspace\SSD\DSS19\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D5073-835F-402F-A2D3-FDEEB18A4791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0E689-C81B-4F9B-A563-3C413AA24B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3610A4FB-03FB-44D9-973D-B7C763137259}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>t</t>
   </si>
@@ -42,6 +43,12 @@
   </si>
   <si>
     <t>sales</t>
+  </si>
+  <si>
+    <t>ma(4)</t>
+  </si>
+  <si>
+    <t>baseline</t>
   </si>
 </sst>
 </file>
@@ -57,12 +64,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +146,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Sales</a:t>
+              <a:t>Avg daily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> sales</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -175,11 +194,11 @@
           <c:x val="6.5697499208518487E-2"/>
           <c:y val="0.14481212572480154"/>
           <c:w val="0.88925931473113018"/>
-          <c:h val="0.76461385267464488"/>
+          <c:h val="0.6594399364201613"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -219,7 +238,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
@@ -287,8 +306,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
@@ -356,11 +375,182 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-70F4-4DCD-ADD9-A83E4D721CA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="2">
+                  <c:v>188.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>319.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>352.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>431.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>435.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>447.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>523.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>576.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>584.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6CB-4EC9-B592-8F50471B3960}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -372,10 +562,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="628570080"/>
         <c:axId val="628570408"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="628570080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -435,9 +627,11 @@
         </c:txPr>
         <c:crossAx val="628570408"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="628570408"/>
         <c:scaling>
@@ -498,7 +692,380 @@
         </c:txPr>
         <c:crossAx val="628570080"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37849153957933435"/>
+          <c:y val="0.90203522269639957"/>
+          <c:w val="0.26604513457361723"/>
+          <c:h val="5.7252309110216192E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ACF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12638862267970932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37980050171212765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36969302285426153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90696520631162014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13925681555197644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27148263578507531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56044556419520686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84243843575044519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DFA-4A79-9955-72568DD1171B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="386806344"/>
+        <c:axId val="386806672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="386806344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386806672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="386806672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386806344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -585,6 +1152,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1101,20 +1708,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1134,6 +2244,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62311ED-3D22-4DF3-99A0-B4C28F7DBBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1439,15 +2585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A079E-2500-4989-9970-B63B171F18C3}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,8 +2606,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1474,8 +2626,19 @@
       <c r="D2">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1485,8 +2648,22 @@
       <c r="D3">
         <v>181</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>AVERAGE(D2:D5)</f>
+        <v>153.75</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1496,8 +2673,25 @@
       <c r="D4">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E20" si="0">AVERAGE(D3:D6)</f>
+        <v>223.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE(E3:E4)</f>
+        <v>188.625</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1507,8 +2701,25 @@
       <c r="D5">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>234.75</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F18" si="1">AVERAGE(E4:E5)</f>
+        <v>229.125</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1521,8 +2732,25 @@
       <c r="D6">
         <v>407</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>266.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>250.625</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1532,8 +2760,25 @@
       <c r="D7">
         <v>226</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1543,8 +2788,25 @@
       <c r="D8">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>319.75</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1554,8 +2816,25 @@
       <c r="D9">
         <v>383</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>372.25</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>352.125</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1568,8 +2847,25 @@
       <c r="D10">
         <v>505</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>388.25</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>380.25</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1579,8 +2875,25 @@
       <c r="D11">
         <v>387</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>423.25</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>405.75</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1590,8 +2903,25 @@
       <c r="D12">
         <v>278</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>431.625</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1601,8 +2931,25 @@
       <c r="D13">
         <v>523</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>431.75</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>435.875</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1615,8 +2962,25 @@
       <c r="D14">
         <v>572</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>463.25</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>447.5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1626,8 +2990,25 @@
       <c r="D15">
         <v>354</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>500.75</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>482</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1637,8 +3018,25 @@
       <c r="D16">
         <v>404</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>545.75</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>523.25</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1648,8 +3046,25 @@
       <c r="D17">
         <v>673</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>574.25</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1662,8 +3077,25 @@
       <c r="D18">
         <v>752</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>576.125</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1673,8 +3105,25 @@
       <c r="D19">
         <v>468</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="F19" s="1">
+        <f>AVERAGE(E18:E19)</f>
+        <v>584.5</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1684,8 +3133,19 @@
       <c r="D20">
         <v>419</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1695,9 +3155,697 @@
       <c r="D21">
         <v>725</v>
       </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>PEARSON($A$35:$A$46,A35:A46)</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:I26" si="2">PEARSON($A$35:$A$46,B35:B46)</f>
+        <v>0.12638862267970932</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>-0.37980050171212765</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.36969302285426153</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.90696520631162014</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.13925681555197644</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>-0.27148263578507531</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.56044556419520686</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.84243843575044519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>181</v>
+      </c>
+      <c r="B28">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>87</v>
+      </c>
+      <c r="B29">
+        <v>181</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>219</v>
+      </c>
+      <c r="B30">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>181</v>
+      </c>
+      <c r="D30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>407</v>
+      </c>
+      <c r="B31">
+        <v>219</v>
+      </c>
+      <c r="C31">
+        <v>87</v>
+      </c>
+      <c r="D31">
+        <v>181</v>
+      </c>
+      <c r="E31">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>226</v>
+      </c>
+      <c r="B32">
+        <v>407</v>
+      </c>
+      <c r="C32">
+        <v>219</v>
+      </c>
+      <c r="D32">
+        <v>87</v>
+      </c>
+      <c r="E32">
+        <v>181</v>
+      </c>
+      <c r="F32">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>214</v>
+      </c>
+      <c r="B33">
+        <v>226</v>
+      </c>
+      <c r="C33">
+        <v>407</v>
+      </c>
+      <c r="D33">
+        <v>219</v>
+      </c>
+      <c r="E33">
+        <v>87</v>
+      </c>
+      <c r="F33">
+        <v>181</v>
+      </c>
+      <c r="G33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>383</v>
+      </c>
+      <c r="B34">
+        <v>214</v>
+      </c>
+      <c r="C34">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <v>407</v>
+      </c>
+      <c r="E34">
+        <v>219</v>
+      </c>
+      <c r="F34">
+        <v>87</v>
+      </c>
+      <c r="G34">
+        <v>181</v>
+      </c>
+      <c r="H34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>505</v>
+      </c>
+      <c r="B35" s="2">
+        <v>383</v>
+      </c>
+      <c r="C35" s="2">
+        <v>214</v>
+      </c>
+      <c r="D35" s="2">
+        <v>226</v>
+      </c>
+      <c r="E35" s="2">
+        <v>407</v>
+      </c>
+      <c r="F35" s="2">
+        <v>219</v>
+      </c>
+      <c r="G35" s="2">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2">
+        <v>181</v>
+      </c>
+      <c r="I35" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>387</v>
+      </c>
+      <c r="B36" s="2">
+        <v>505</v>
+      </c>
+      <c r="C36" s="2">
+        <v>383</v>
+      </c>
+      <c r="D36" s="2">
+        <v>214</v>
+      </c>
+      <c r="E36" s="2">
+        <v>226</v>
+      </c>
+      <c r="F36" s="2">
+        <v>407</v>
+      </c>
+      <c r="G36" s="2">
+        <v>219</v>
+      </c>
+      <c r="H36" s="2">
+        <v>87</v>
+      </c>
+      <c r="I36" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>278</v>
+      </c>
+      <c r="B37" s="2">
+        <v>387</v>
+      </c>
+      <c r="C37" s="2">
+        <v>505</v>
+      </c>
+      <c r="D37" s="2">
+        <v>383</v>
+      </c>
+      <c r="E37" s="2">
+        <v>214</v>
+      </c>
+      <c r="F37" s="2">
+        <v>226</v>
+      </c>
+      <c r="G37" s="2">
+        <v>407</v>
+      </c>
+      <c r="H37" s="2">
+        <v>219</v>
+      </c>
+      <c r="I37" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>523</v>
+      </c>
+      <c r="B38" s="2">
+        <v>278</v>
+      </c>
+      <c r="C38" s="2">
+        <v>387</v>
+      </c>
+      <c r="D38" s="2">
+        <v>505</v>
+      </c>
+      <c r="E38" s="2">
+        <v>383</v>
+      </c>
+      <c r="F38" s="2">
+        <v>214</v>
+      </c>
+      <c r="G38" s="2">
+        <v>226</v>
+      </c>
+      <c r="H38" s="2">
+        <v>407</v>
+      </c>
+      <c r="I38" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>572</v>
+      </c>
+      <c r="B39" s="2">
+        <v>523</v>
+      </c>
+      <c r="C39" s="2">
+        <v>278</v>
+      </c>
+      <c r="D39" s="2">
+        <v>387</v>
+      </c>
+      <c r="E39" s="2">
+        <v>505</v>
+      </c>
+      <c r="F39" s="2">
+        <v>383</v>
+      </c>
+      <c r="G39" s="2">
+        <v>214</v>
+      </c>
+      <c r="H39" s="2">
+        <v>226</v>
+      </c>
+      <c r="I39" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>354</v>
+      </c>
+      <c r="B40" s="2">
+        <v>572</v>
+      </c>
+      <c r="C40" s="2">
+        <v>523</v>
+      </c>
+      <c r="D40" s="2">
+        <v>278</v>
+      </c>
+      <c r="E40" s="2">
+        <v>387</v>
+      </c>
+      <c r="F40" s="2">
+        <v>505</v>
+      </c>
+      <c r="G40" s="2">
+        <v>383</v>
+      </c>
+      <c r="H40" s="2">
+        <v>214</v>
+      </c>
+      <c r="I40" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>404</v>
+      </c>
+      <c r="B41" s="2">
+        <v>354</v>
+      </c>
+      <c r="C41" s="2">
+        <v>572</v>
+      </c>
+      <c r="D41" s="2">
+        <v>523</v>
+      </c>
+      <c r="E41" s="2">
+        <v>278</v>
+      </c>
+      <c r="F41" s="2">
+        <v>387</v>
+      </c>
+      <c r="G41" s="2">
+        <v>505</v>
+      </c>
+      <c r="H41" s="2">
+        <v>383</v>
+      </c>
+      <c r="I41" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>673</v>
+      </c>
+      <c r="B42" s="2">
+        <v>404</v>
+      </c>
+      <c r="C42" s="2">
+        <v>354</v>
+      </c>
+      <c r="D42" s="2">
+        <v>572</v>
+      </c>
+      <c r="E42" s="2">
+        <v>523</v>
+      </c>
+      <c r="F42" s="2">
+        <v>278</v>
+      </c>
+      <c r="G42" s="2">
+        <v>387</v>
+      </c>
+      <c r="H42" s="2">
+        <v>505</v>
+      </c>
+      <c r="I42" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>752</v>
+      </c>
+      <c r="B43" s="2">
+        <v>673</v>
+      </c>
+      <c r="C43" s="2">
+        <v>404</v>
+      </c>
+      <c r="D43" s="2">
+        <v>354</v>
+      </c>
+      <c r="E43" s="2">
+        <v>572</v>
+      </c>
+      <c r="F43" s="2">
+        <v>523</v>
+      </c>
+      <c r="G43" s="2">
+        <v>278</v>
+      </c>
+      <c r="H43" s="2">
+        <v>387</v>
+      </c>
+      <c r="I43" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>468</v>
+      </c>
+      <c r="B44" s="2">
+        <v>752</v>
+      </c>
+      <c r="C44" s="2">
+        <v>673</v>
+      </c>
+      <c r="D44" s="2">
+        <v>404</v>
+      </c>
+      <c r="E44" s="2">
+        <v>354</v>
+      </c>
+      <c r="F44" s="2">
+        <v>572</v>
+      </c>
+      <c r="G44" s="2">
+        <v>523</v>
+      </c>
+      <c r="H44" s="2">
+        <v>278</v>
+      </c>
+      <c r="I44" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>419</v>
+      </c>
+      <c r="B45" s="2">
+        <v>468</v>
+      </c>
+      <c r="C45" s="2">
+        <v>752</v>
+      </c>
+      <c r="D45" s="2">
+        <v>673</v>
+      </c>
+      <c r="E45" s="2">
+        <v>404</v>
+      </c>
+      <c r="F45" s="2">
+        <v>354</v>
+      </c>
+      <c r="G45" s="2">
+        <v>572</v>
+      </c>
+      <c r="H45" s="2">
+        <v>523</v>
+      </c>
+      <c r="I45" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>725</v>
+      </c>
+      <c r="B46" s="2">
+        <v>419</v>
+      </c>
+      <c r="C46" s="2">
+        <v>468</v>
+      </c>
+      <c r="D46" s="2">
+        <v>752</v>
+      </c>
+      <c r="E46" s="2">
+        <v>673</v>
+      </c>
+      <c r="F46" s="2">
+        <v>404</v>
+      </c>
+      <c r="G46" s="2">
+        <v>354</v>
+      </c>
+      <c r="H46" s="2">
+        <v>572</v>
+      </c>
+      <c r="I46" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>725</v>
+      </c>
+      <c r="C47">
+        <v>419</v>
+      </c>
+      <c r="D47">
+        <v>468</v>
+      </c>
+      <c r="E47">
+        <v>752</v>
+      </c>
+      <c r="F47">
+        <v>673</v>
+      </c>
+      <c r="G47">
+        <v>404</v>
+      </c>
+      <c r="H47">
+        <v>354</v>
+      </c>
+      <c r="I47">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>725</v>
+      </c>
+      <c r="D48">
+        <v>419</v>
+      </c>
+      <c r="E48">
+        <v>468</v>
+      </c>
+      <c r="F48">
+        <v>752</v>
+      </c>
+      <c r="G48">
+        <v>673</v>
+      </c>
+      <c r="H48">
+        <v>404</v>
+      </c>
+      <c r="I48">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>725</v>
+      </c>
+      <c r="E49">
+        <v>419</v>
+      </c>
+      <c r="F49">
+        <v>468</v>
+      </c>
+      <c r="G49">
+        <v>752</v>
+      </c>
+      <c r="H49">
+        <v>673</v>
+      </c>
+      <c r="I49">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>725</v>
+      </c>
+      <c r="F50">
+        <v>419</v>
+      </c>
+      <c r="G50">
+        <v>468</v>
+      </c>
+      <c r="H50">
+        <v>752</v>
+      </c>
+      <c r="I50">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>725</v>
+      </c>
+      <c r="G51">
+        <v>419</v>
+      </c>
+      <c r="H51">
+        <v>468</v>
+      </c>
+      <c r="I51">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>725</v>
+      </c>
+      <c r="H52">
+        <v>419</v>
+      </c>
+      <c r="I52">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>725</v>
+      </c>
+      <c r="I53">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>725</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/csv/FilRouge.xlsx
+++ b/csv/FilRouge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\loren\Documents\workspace\SSD\DSS19\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0E689-C81B-4F9B-A563-3C413AA24B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C29A25C-C7BA-4ADF-8EBE-7604CB714889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3610A4FB-03FB-44D9-973D-B7C763137259}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>t</t>
   </si>
@@ -42,21 +42,126 @@
     <t>trim.</t>
   </si>
   <si>
-    <t>sales</t>
-  </si>
-  <si>
     <t>ma(4)</t>
   </si>
   <si>
-    <t>baseline</t>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>Regressione</t>
+  </si>
+  <si>
+    <t>Destagionalizz</t>
+  </si>
+  <si>
+    <t>Coeff</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>s*t</t>
+  </si>
+  <si>
+    <t>Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,14 +191,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sales</c:v>
+                  <c:v>Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -392,7 +527,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>baseline</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -551,6 +686,420 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E6CB-4EC9-B592-8F50471B3960}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Destagionalizz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>92.493930238637162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.97626979049019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.64846943070006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197.06813542069867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.1017938056666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275.91512139586069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>336.12382135827374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344.6442733613132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>364.91745914462319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>472.47412380618618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>436.64683335327146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>470.62390331061829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>413.33225075390982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>432.1856326289145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>634.55151321842334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>605.60207825630232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>543.40184015199327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>571.36405669585304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>658.11159415475095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>652.39451223747278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6CB-4EC9-B592-8F50471B3960}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regressione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>143.07974629771917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.93228675329587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.78482720887257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.6373676644493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.48990812002603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.3424485756027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310.19498903117943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.04752948675616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365.90006994233289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393.75261039790962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>421.60515085348629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>449.45769130906302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>477.31023176463975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>505.16277222021643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>533.01531267579321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>560.86785313136988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>588.72039358694656</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>616.57293404252334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>644.42547449810002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>672.2780149536768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E6CB-4EC9-B592-8F50471B3960}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s*t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>198.00442557535223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.00935001608943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.56036353149597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251.8600148753487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>352.18211784621531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.26457533488227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197.4918867232449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>375.66909941861536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>506.35981011707844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>322.51980065367519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>268.42340991499384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>499.478183961882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>660.53750238794146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>413.77502597246797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>339.35493310674281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>623.28726850514863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>814.71519465880453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>505.03025129126087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410.28645629849171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>747.09635304841538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E6CB-4EC9-B592-8F50471B3960}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="20">
+                  <c:v>968.89288692966772</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>596.28547661005371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>481.21797949024068</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>870.9054375916819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E6CB-4EC9-B592-8F50471B3960}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -708,10 +1257,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37849153957933435"/>
-          <c:y val="0.90203522269639957"/>
-          <c:w val="0.26604513457361723"/>
-          <c:h val="5.7252309110216192E-2"/>
+          <c:x val="0.13321716528172567"/>
+          <c:y val="0.89852631578947384"/>
+          <c:w val="0.70384274246886247"/>
+          <c:h val="5.625039370078741E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -871,7 +1420,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$25:$I$25</c:f>
+              <c:f>Sheet1!$A$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -907,7 +1456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$26:$I$26</c:f>
+              <c:f>Sheet1!$A$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2215,16 +2764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2252,15 +2801,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2585,13 +3134,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A079E-2500-4989-9970-B63B171F18C3}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:I26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2604,13 +3164,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2630,10 +3205,21 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="1">
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2/I2</f>
+        <v>92.493930238637162</v>
+      </c>
+      <c r="K2" s="1">
+        <f>$U$43+$U$44*A2</f>
+        <v>143.07974629771917</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K2*I2</f>
+        <v>198.00442557535223</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2655,10 +3241,21 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="1">
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J21" si="0">D3/I3</f>
+        <v>220.97626979049019</v>
+      </c>
+      <c r="K3" s="1">
+        <f>$U$43+$U$44*A3</f>
+        <v>170.93228675329587</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L25" si="1">K3*I3</f>
+        <v>140.00935001608943</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2674,19 +3271,33 @@
         <v>87</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E20" si="0">AVERAGE(D3:D6)</f>
+        <f t="shared" ref="E4:E19" si="2">AVERAGE(D3:D6)</f>
         <v>223.5</v>
       </c>
       <c r="F4" s="1">
         <f>AVERAGE(E3:E4)</f>
         <v>188.625</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <f>D4/F4</f>
+        <v>0.46123260437375746</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>136.64846943070006</v>
+      </c>
+      <c r="K4" s="1">
+        <f>$U$43+$U$44*A4</f>
+        <v>198.78482720887257</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>126.56036353149597</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2702,19 +3313,33 @@
         <v>219</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>234.75</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F18" si="3">AVERAGE(E4:E5)</f>
+        <v>229.125</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G19" si="4">D5/F5</f>
+        <v>0.95581014729950897</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>234.75</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F18" si="1">AVERAGE(E4:E5)</f>
-        <v>229.125</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+        <v>197.06813542069867</v>
+      </c>
+      <c r="K5" s="1">
+        <f>$U$43+$U$44*A5</f>
+        <v>226.6373676644493</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>251.8600148753487</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2733,19 +3358,36 @@
         <v>407</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>266.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>250.625</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6239401496259351</v>
+      </c>
+      <c r="H6" s="1">
+        <f>AVERAGE(G6,G10,G14,G18)</f>
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>266.5</v>
-      </c>
-      <c r="F6" s="1">
+        <v>294.1017938056666</v>
+      </c>
+      <c r="K6" s="1">
+        <f>$U$43+$U$44*A6</f>
+        <v>254.48990812002603</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>250.625</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>352.18211784621531</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2761,19 +3403,36 @@
         <v>226</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>307.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78745644599303133</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7" si="5">AVERAGE(G7,G11,G15,G19)</f>
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>307.5</v>
-      </c>
-      <c r="F7" s="1">
+        <v>275.91512139586069</v>
+      </c>
+      <c r="K7" s="1">
+        <f>$U$43+$U$44*A7</f>
+        <v>282.3424485756027</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>231.26457533488227</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2789,19 +3448,36 @@
         <v>214</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>319.75</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.66927286942924158</v>
+      </c>
+      <c r="H8" s="1">
+        <f>AVERAGE(G8,G12,G16,G4)</f>
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>332</v>
-      </c>
-      <c r="F8" s="1">
+        <v>336.12382135827374</v>
+      </c>
+      <c r="K8" s="1">
+        <f>$U$43+$U$44*A8</f>
+        <v>310.19498903117943</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>319.75</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+        <v>197.4918867232449</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2817,19 +3493,36 @@
         <v>383</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>372.25</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>352.125</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0876819311324104</v>
+      </c>
+      <c r="H9" s="1">
+        <f>AVERAGE(G9,G13,G17,G5)</f>
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>372.25</v>
-      </c>
-      <c r="F9" s="1">
+        <v>344.6442733613132</v>
+      </c>
+      <c r="K9" s="1">
+        <f>$U$43+$U$44*A9</f>
+        <v>338.04752948675616</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>352.125</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <v>375.66909941861536</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2848,19 +3541,33 @@
         <v>505</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>388.25</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>380.25</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3280736357659435</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>388.25</v>
-      </c>
-      <c r="F10" s="1">
+        <v>364.91745914462319</v>
+      </c>
+      <c r="K10" s="1">
+        <f>$U$43+$U$44*A10</f>
+        <v>365.90006994233289</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>380.25</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+        <v>506.35981011707844</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2876,19 +3583,33 @@
         <v>387</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>423.25</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>405.75</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.95378927911275413</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>423.25</v>
-      </c>
-      <c r="F11" s="1">
+        <v>472.47412380618618</v>
+      </c>
+      <c r="K11" s="1">
+        <f>$U$43+$U$44*A11</f>
+        <v>393.75261039790962</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>405.75</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <v>322.51980065367519</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2904,19 +3625,33 @@
         <v>278</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>431.625</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64407761366927307</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="F12" s="1">
+        <v>436.64683335327146</v>
+      </c>
+      <c r="K12" s="1">
+        <f>$U$43+$U$44*A12</f>
+        <v>421.60515085348629</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>431.625</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+        <v>268.42340991499384</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2932,19 +3667,33 @@
         <v>523</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>431.75</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>435.875</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1998852882133639</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>431.75</v>
-      </c>
-      <c r="F13" s="1">
+        <v>470.62390331061829</v>
+      </c>
+      <c r="K13" s="1">
+        <f>$U$43+$U$44*A13</f>
+        <v>449.45769130906302</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>435.875</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+        <v>499.478183961882</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2963,19 +3712,33 @@
         <v>572</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>463.25</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>447.5</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2782122905027933</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>463.25</v>
-      </c>
-      <c r="F14" s="1">
+        <v>413.33225075390982</v>
+      </c>
+      <c r="K14" s="1">
+        <f>$U$43+$U$44*A14</f>
+        <v>477.31023176463975</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>447.5</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+        <v>660.53750238794146</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2991,19 +3754,33 @@
         <v>354</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>500.75</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73443983402489632</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>500.75</v>
-      </c>
-      <c r="F15" s="1">
+        <v>432.1856326289145</v>
+      </c>
+      <c r="K15" s="1">
+        <f>$U$43+$U$44*A15</f>
+        <v>505.16277222021643</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>482</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+        <v>413.77502597246797</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3019,24 +3796,38 @@
         <v>404</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>545.75</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>523.25</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.77209746774964161</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>545.75</v>
-      </c>
-      <c r="F16" s="1">
+        <v>634.55151321842334</v>
+      </c>
+      <c r="K16" s="1">
+        <f>$U$43+$U$44*A16</f>
+        <v>533.01531267579321</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>523.25</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>339.35493310674281</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3047,24 +3838,38 @@
         <v>673</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>574.25</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2017857142857142</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>574.25</v>
-      </c>
-      <c r="F17" s="1">
+        <v>605.60207825630232</v>
+      </c>
+      <c r="K17" s="1">
+        <f>$U$43+$U$44*A17</f>
+        <v>560.86785313136988</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+        <v>623.28726850514863</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3078,24 +3883,38 @@
         <v>752</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>578</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>576.125</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3052722933391192</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>578</v>
-      </c>
-      <c r="F18" s="1">
+        <v>543.40184015199327</v>
+      </c>
+      <c r="K18" s="1">
+        <f>$U$43+$U$44*A18</f>
+        <v>588.72039358694656</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="1"/>
-        <v>576.125</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+        <v>814.71519465880453</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3106,24 +3925,38 @@
         <v>468</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>591</v>
       </c>
       <c r="F19" s="1">
         <f>AVERAGE(E18:E19)</f>
         <v>584.5</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.80068434559452528</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="1">
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>571.36405669585304</v>
+      </c>
+      <c r="K19" s="1">
+        <f>$U$43+$U$44*A19</f>
+        <v>616.57293404252334</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>505.03025129126087</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3137,15 +3970,26 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="I20" s="1">
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>658.11159415475095</v>
+      </c>
+      <c r="K20" s="1">
+        <f>$U$43+$U$44*A20</f>
+        <v>644.42547449810002</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>410.28645629849171</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3159,687 +4003,982 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="1">
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>652.39451223747278</v>
+      </c>
+      <c r="K21" s="1">
+        <f>$U$43+$U$44*A21</f>
+        <v>672.2780149536768</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>747.09635304841538</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8">
+        <v>1.3838745923084477</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
+        <f>$U$43+$U$44*A22</f>
+        <v>700.13055540925347</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>968.89288692966772</v>
+      </c>
+      <c r="M22" s="8">
+        <v>968.89288692966772</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
+        <v>0.81909247618130177</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
+        <f>$U$43+$U$44*A23</f>
+        <v>727.98309586483015</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>596.28547661005371</v>
+      </c>
+      <c r="M23" s="8">
+        <v>596.28547661005371</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
+        <v>0.63667013880547851</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <f>$U$43+$U$44*A24</f>
+        <v>755.83563632040693</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>481.21797949024068</v>
+      </c>
+      <c r="M24" s="8">
+        <v>481.21797949024068</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
+        <v>1.1112907702327495</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
+        <f>$U$43+$U$44*A25</f>
+        <v>783.68817677598361</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>870.9054375916819</v>
+      </c>
+      <c r="M25" s="8">
+        <v>870.9054375916819</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="H25">
+      <c r="H28">
         <v>7</v>
       </c>
-      <c r="I25">
+      <c r="I28">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>PEARSON($A$35:$A$46,A35:A46)</f>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>PEARSON($A$38:$A$49,A38:A49)</f>
         <v>1</v>
       </c>
-      <c r="B26">
-        <f t="shared" ref="B26:I26" si="2">PEARSON($A$35:$A$46,B35:B46)</f>
+      <c r="B29">
+        <f t="shared" ref="B29:I29" si="6">PEARSON($A$38:$A$49,B38:B49)</f>
         <v>0.12638862267970932</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
+      <c r="C29">
+        <f t="shared" si="6"/>
         <v>-0.37980050171212765</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
+      <c r="D29">
+        <f t="shared" si="6"/>
         <v>0.36969302285426153</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
+      <c r="E29">
+        <f t="shared" si="6"/>
         <v>0.90696520631162014</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
+      <c r="F29">
+        <f t="shared" si="6"/>
         <v>0.13925681555197644</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
+      <c r="G29">
+        <f t="shared" si="6"/>
         <v>-0.27148263578507531</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
+      <c r="H29">
+        <f t="shared" si="6"/>
         <v>0.56044556419520686</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
+      <c r="I29">
+        <f t="shared" si="6"/>
         <v>0.84243843575044519</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="T29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="T30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.95869830109818888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>181</v>
       </c>
-      <c r="B28">
+      <c r="B31">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="T31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.91910243252855361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>87</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>181</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.91460812322458429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>219</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>87</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>181</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="T33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" s="3">
+        <v>50.22560276682978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>407</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>219</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>87</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>181</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="T34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>226</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>407</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>219</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>87</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>181</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="36" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>214</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>226</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>407</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>219</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>87</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>181</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="T36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>383</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>214</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>226</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>407</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>219</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>87</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>181</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="T37" s="5"/>
+      <c r="U37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>505</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B38" s="2">
         <v>383</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C38" s="2">
         <v>214</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D38" s="2">
         <v>226</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E38" s="2">
         <v>407</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F38" s="2">
         <v>219</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G38" s="2">
         <v>87</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H38" s="2">
         <v>181</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I38" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="T38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1</v>
+      </c>
+      <c r="V38" s="3">
+        <v>515883.06653664249</v>
+      </c>
+      <c r="W38" s="3">
+        <v>515883.06653664249</v>
+      </c>
+      <c r="X38" s="3">
+        <v>204.50360007862153</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>2.8583760493446935E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>387</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B39" s="2">
         <v>505</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C39" s="2">
         <v>383</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D39" s="2">
         <v>214</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E39" s="2">
         <v>226</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F39" s="2">
         <v>407</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G39" s="2">
         <v>219</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H39" s="2">
         <v>87</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I39" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="T39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U39" s="3">
+        <v>18</v>
+      </c>
+      <c r="V39" s="3">
+        <v>45407.001119244829</v>
+      </c>
+      <c r="W39" s="3">
+        <v>2522.6111732913796</v>
+      </c>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>278</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B40" s="2">
         <v>387</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C40" s="2">
         <v>505</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D40" s="2">
         <v>383</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E40" s="2">
         <v>214</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F40" s="2">
         <v>226</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G40" s="2">
         <v>407</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H40" s="2">
         <v>219</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I40" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="T40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U40" s="4">
+        <v>19</v>
+      </c>
+      <c r="V40" s="4">
+        <v>561290.06765588734</v>
+      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>523</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B41" s="2">
         <v>278</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C41" s="2">
         <v>387</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D41" s="2">
         <v>505</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E41" s="2">
         <v>383</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F41" s="2">
         <v>214</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G41" s="2">
         <v>226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H41" s="2">
         <v>407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I41" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>572</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B42" s="2">
         <v>523</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C42" s="2">
         <v>278</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D42" s="2">
         <v>387</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E42" s="2">
         <v>505</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F42" s="2">
         <v>383</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G42" s="2">
         <v>214</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H42" s="2">
         <v>226</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I42" s="2">
         <v>407</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="T42" s="5"/>
+      <c r="U42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>354</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B43" s="2">
         <v>572</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C43" s="2">
         <v>523</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D43" s="2">
         <v>278</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E43" s="2">
         <v>387</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F43" s="2">
         <v>505</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G43" s="2">
         <v>383</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H43" s="2">
         <v>214</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I43" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="T43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="3">
+        <v>115.22720584214244</v>
+      </c>
+      <c r="V43" s="3">
+        <v>23.331372385576795</v>
+      </c>
+      <c r="W43" s="3">
+        <v>4.9387238752133875</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1.0602670670402538E-4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>66.209811368213025</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>164.24460031607185</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>66.209811368213025</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>164.24460031607185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>404</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B44" s="2">
         <v>354</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C44" s="2">
         <v>572</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D44" s="2">
         <v>523</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E44" s="2">
         <v>278</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F44" s="2">
         <v>387</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G44" s="2">
         <v>505</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H44" s="2">
         <v>383</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I44" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="T44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U44" s="4">
+        <v>27.852540455576715</v>
+      </c>
+      <c r="V44" s="4">
+        <v>1.9476653358799967</v>
+      </c>
+      <c r="W44" s="4">
+        <v>14.300475519318283</v>
+      </c>
+      <c r="X44" s="4">
+        <v>2.8583760493446935E-11</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>23.760647424412966</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>31.944433486740465</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>23.760647424412966</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>31.944433486740465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>673</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B45" s="2">
         <v>404</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C45" s="2">
         <v>354</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D45" s="2">
         <v>572</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E45" s="2">
         <v>523</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F45" s="2">
         <v>278</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G45" s="2">
         <v>387</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H45" s="2">
         <v>505</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I45" s="2">
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>752</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B46" s="2">
         <v>673</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C46" s="2">
         <v>404</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D46" s="2">
         <v>354</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E46" s="2">
         <v>572</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F46" s="2">
         <v>523</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G46" s="2">
         <v>278</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H46" s="2">
         <v>387</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I46" s="2">
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>468</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B47" s="2">
         <v>752</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C47" s="2">
         <v>673</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D47" s="2">
         <v>404</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E47" s="2">
         <v>354</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F47" s="2">
         <v>572</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G47" s="2">
         <v>523</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H47" s="2">
         <v>278</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I47" s="2">
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>419</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B48" s="2">
         <v>468</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C48" s="2">
         <v>752</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D48" s="2">
         <v>673</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E48" s="2">
         <v>404</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F48" s="2">
         <v>354</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G48" s="2">
         <v>572</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H48" s="2">
         <v>523</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I48" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>725</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B49" s="2">
         <v>419</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C49" s="2">
         <v>468</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D49" s="2">
         <v>752</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E49" s="2">
         <v>673</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F49" s="2">
         <v>404</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G49" s="2">
         <v>354</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H49" s="2">
         <v>572</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I49" s="2">
         <v>523</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>725</v>
       </c>
-      <c r="C47">
+      <c r="C50">
         <v>419</v>
       </c>
-      <c r="D47">
+      <c r="D50">
         <v>468</v>
       </c>
-      <c r="E47">
+      <c r="E50">
         <v>752</v>
       </c>
-      <c r="F47">
+      <c r="F50">
         <v>673</v>
       </c>
-      <c r="G47">
+      <c r="G50">
         <v>404</v>
       </c>
-      <c r="H47">
+      <c r="H50">
         <v>354</v>
       </c>
-      <c r="I47">
+      <c r="I50">
         <v>572</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51">
         <v>725</v>
       </c>
-      <c r="D48">
+      <c r="D51">
         <v>419</v>
       </c>
-      <c r="E48">
+      <c r="E51">
         <v>468</v>
       </c>
-      <c r="F48">
+      <c r="F51">
         <v>752</v>
       </c>
-      <c r="G48">
+      <c r="G51">
         <v>673</v>
       </c>
-      <c r="H48">
+      <c r="H51">
         <v>404</v>
       </c>
-      <c r="I48">
+      <c r="I51">
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D52">
         <v>725</v>
       </c>
-      <c r="E49">
+      <c r="E52">
         <v>419</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>468</v>
       </c>
-      <c r="G49">
+      <c r="G52">
         <v>752</v>
       </c>
-      <c r="H49">
+      <c r="H52">
         <v>673</v>
       </c>
-      <c r="I49">
+      <c r="I52">
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E50">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E53">
         <v>725</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <v>419</v>
       </c>
-      <c r="G50">
+      <c r="G53">
         <v>468</v>
       </c>
-      <c r="H50">
+      <c r="H53">
         <v>752</v>
       </c>
-      <c r="I50">
+      <c r="I53">
         <v>673</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F51">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F54">
         <v>725</v>
       </c>
-      <c r="G51">
+      <c r="G54">
         <v>419</v>
       </c>
-      <c r="H51">
+      <c r="H54">
         <v>468</v>
       </c>
-      <c r="I51">
+      <c r="I54">
         <v>752</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G52">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G55">
         <v>725</v>
       </c>
-      <c r="H52">
+      <c r="H55">
         <v>419</v>
       </c>
-      <c r="I52">
+      <c r="I55">
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H53">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H56">
         <v>725</v>
       </c>
-      <c r="I53">
+      <c r="I56">
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I54">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57">
         <v>725</v>
       </c>
     </row>
